--- a/pgxai_chatgpt_results_evaluation/outputfiles/Patient_Results.xlsx
+++ b/pgxai_chatgpt_results_evaluation/outputfiles/Patient_Results.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murugan/Documents/GitHub/PGx-slco1b1-chatbotold/pgxai_chatgpt_results_evaluation/outputfiles/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1651007-C8CB-3242-A94E-988F31CE01F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summation_Pharmacogenetics (PG" sheetId="1" r:id="rId1"/>
@@ -14,12 +20,25 @@
     <sheet name="Comparison_Results Patient" sheetId="5" r:id="rId5"/>
     <sheet name="Wilcoxon_Results" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
   <si>
     <t>Section</t>
   </si>
@@ -75,12 +94,6 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t>ChatGPT</t>
-  </si>
-  <si>
-    <t>PGx AI Assistant</t>
-  </si>
-  <si>
     <t>Statistic</t>
   </si>
   <si>
@@ -89,12 +102,33 @@
   <si>
     <t>Cohen's d</t>
   </si>
+  <si>
+    <t>ChatGPT 3.5</t>
+  </si>
+  <si>
+    <t>Strongly Agree</t>
+  </si>
+  <si>
+    <t>Agree</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Disagree</t>
+  </si>
+  <si>
+    <t>Strongly  Disagree</t>
+  </si>
+  <si>
+    <t>PGx AI assistant</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,24 +180,3889 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AI Assistant Patient/layperson Evaluation Results (# Questions: 33) </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B903-3348-B0FB-DBC27936BC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B903-3348-B0FB-DBC27936BC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B903-3348-B0FB-DBC27936BC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B903-3348-B0FB-DBC27936BC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly  Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_Pharmacogenetics (PGx)'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B903-3348-B0FB-DBC27936BC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1423253776"/>
+        <c:axId val="933070240"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1423253776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="933070240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="933070240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1423253776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ChatGPT</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 3.5</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> Patient/layperson Evaluation Results</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> (# Questions: 33) </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CBE-9949-960C-E776487064DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Agree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CBE-9949-960C-E776487064DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Neutral</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$E$2:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4CBE-9949-960C-E776487064DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$F$2:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4CBE-9949-960C-E776487064DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Strongly  Disagree</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$B$2:$B$7</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Overall_ChatGPT 3.5 PGx Respon'!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4CBE-9949-960C-E776487064DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="650860528"/>
+        <c:axId val="1423620128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="650860528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1423620128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1423620128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="650860528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Performance Metrics for Patient/Layperson Queries</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" b="0">
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>(%)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison_Results Patient'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ChatGPT 3.5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison_Results Patient'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison_Results Patient'!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66DD-D84C-B134-36FDEE6ACBF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Comparison_Results Patient'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PGx AI assistant</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="51000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="80000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="93000"/>
+                    <a:satMod val="130000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:shade val="94000"/>
+                    <a:satMod val="135000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="16200000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="35000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:scene3d>
+              <a:camera prst="orthographicFront">
+                <a:rot lat="0" lon="0" rev="0"/>
+              </a:camera>
+              <a:lightRig rig="threePt" dir="t">
+                <a:rot lat="0" lon="0" rev="1200000"/>
+              </a:lightRig>
+            </a:scene3d>
+            <a:sp3d>
+              <a:bevelT w="63500" h="25400"/>
+            </a:sp3d>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="stdErr"/>
+            <c:noEndCap val="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Comparison_Results Patient'!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bias</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hallucination</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Language</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Relevancy</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Risk</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Overall</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Comparison_Results Patient'!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66DD-D84C-B134-36FDEE6ACBF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="100"/>
+        <c:overlap val="-24"/>
+        <c:axId val="1442943920"/>
+        <c:axId val="823855088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1442943920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823855088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="823855088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1442943920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E732E7FC-4182-2B88-7C64-F40A7CA77237}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{487E6D11-868E-8A63-708C-F081D96A50AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2F8C122-8C10-A34E-1E04-1D6AE2764289}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +4100,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -235,6 +4134,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -269,9 +4169,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -444,14 +4345,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,7 +4374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -491,7 +4394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -505,7 +4408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -519,7 +4422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -533,7 +4436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -550,7 +4453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -564,7 +4467,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -581,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -595,7 +4498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -609,7 +4512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -623,7 +4526,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -640,7 +4543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -654,7 +4557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -674,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -688,7 +4591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -702,7 +4605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -716,7 +4619,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -733,7 +4636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -744,7 +4647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -764,7 +4667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -784,7 +4687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -804,7 +4707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -824,7 +4727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -844,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -870,14 +4773,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -885,19 +4790,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -905,19 +4813,22 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>19</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -925,19 +4836,22 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -945,19 +4859,22 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -965,19 +4882,22 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -985,19 +4905,22 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>23</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1005,32 +4928,38 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>26</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +4979,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1070,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1081,7 +5010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1092,7 +5021,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1103,7 +5032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1120,7 +5049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1134,7 +5063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1168,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -1196,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -1213,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -1227,7 +5156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1244,7 +5173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1258,7 +5187,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1272,7 +5201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +5215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -1300,7 +5229,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1314,7 +5243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1334,7 +5263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1354,7 +5283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1374,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +5323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1414,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1440,14 +5369,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1455,19 +5386,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>25</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1475,19 +5409,22 @@
         <v>10</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
         <v>19</v>
-      </c>
-      <c r="D2">
-        <v>7</v>
       </c>
       <c r="E2">
         <v>4</v>
       </c>
       <c r="F2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1495,19 +5432,22 @@
         <v>11</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
         <v>29</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1515,19 +5455,22 @@
         <v>12</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>31</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1535,19 +5478,22 @@
         <v>13</v>
       </c>
       <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
         <v>29</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1555,19 +5501,22 @@
         <v>14</v>
       </c>
       <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
         <v>17</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1575,43 +5524,49 @@
         <v>15</v>
       </c>
       <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
         <v>25</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1622,7 +5577,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -1633,7 +5588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -1644,7 +5599,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1655,7 +5610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1666,7 +5621,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1677,7 +5632,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1690,37 +5645,40 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0.6715835332870483</v>
+        <v>0.67158353328704834</v>
       </c>
       <c r="B2">
-        <v>0.0006428602288047</v>
+        <v>6.4286022880469999E-4</v>
       </c>
       <c r="C2">
-        <v>0.2621365945960386</v>
+        <v>0.26213659459603861</v>
       </c>
     </row>
   </sheetData>
